--- a/results/mp/logistic/corona/confidence/84/desired-masking-0.2/avg_0.002_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/84/desired-masking-0.2/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="150">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,130 +40,151 @@
     <t>name</t>
   </si>
   <si>
+    <t>warned</t>
+  </si>
+  <si>
     <t>war</t>
   </si>
   <si>
+    <t>crude</t>
+  </si>
+  <si>
     <t>arrested</t>
   </si>
   <si>
+    <t>kill</t>
+  </si>
+  <si>
     <t>die</t>
   </si>
   <si>
-    <t>kill</t>
+    <t>warning</t>
+  </si>
+  <si>
+    <t>death</t>
+  </si>
+  <si>
+    <t>collapse</t>
+  </si>
+  <si>
+    <t>forced</t>
   </si>
   <si>
     <t>fraud</t>
   </si>
   <si>
-    <t>crude</t>
-  </si>
-  <si>
-    <t>death</t>
-  </si>
-  <si>
     <t>crisis</t>
   </si>
   <si>
-    <t>forced</t>
+    <t>disgusting</t>
+  </si>
+  <si>
+    <t>hell</t>
+  </si>
+  <si>
+    <t>debt</t>
+  </si>
+  <si>
+    <t>crash</t>
+  </si>
+  <si>
+    <t>died</t>
+  </si>
+  <si>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>slash</t>
+  </si>
+  <si>
+    <t>uncertainty</t>
+  </si>
+  <si>
+    <t>infected</t>
   </si>
   <si>
     <t>problem</t>
   </si>
   <si>
-    <t>collapse</t>
-  </si>
-  <si>
-    <t>disgusting</t>
-  </si>
-  <si>
-    <t>uncertainty</t>
-  </si>
-  <si>
-    <t>hell</t>
-  </si>
-  <si>
-    <t>slash</t>
-  </si>
-  <si>
-    <t>warning</t>
-  </si>
-  <si>
-    <t>poor</t>
+    <t>recession</t>
+  </si>
+  <si>
+    <t>pressure</t>
+  </si>
+  <si>
+    <t>falling</t>
+  </si>
+  <si>
+    <t>panic</t>
   </si>
   <si>
     <t>lowest</t>
   </si>
   <si>
-    <t>infected</t>
-  </si>
-  <si>
-    <t>died</t>
-  </si>
-  <si>
-    <t>falling</t>
-  </si>
-  <si>
-    <t>panic</t>
+    <t>drop</t>
+  </si>
+  <si>
+    <t>sc</t>
+  </si>
+  <si>
+    <t>fears</t>
+  </si>
+  <si>
+    <t>sick</t>
+  </si>
+  <si>
+    <t>cuts</t>
+  </si>
+  <si>
+    <t>anxiety</t>
+  </si>
+  <si>
+    <t>low</t>
   </si>
   <si>
     <t>fake</t>
   </si>
   <si>
-    <t>drop</t>
-  </si>
-  <si>
-    <t>recession</t>
-  </si>
-  <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>fears</t>
-  </si>
-  <si>
-    <t>low</t>
+    <t>no</t>
+  </si>
+  <si>
+    <t>worse</t>
+  </si>
+  <si>
+    <t>cancelled</t>
+  </si>
+  <si>
+    <t>fear</t>
+  </si>
+  <si>
+    <t>lower</t>
   </si>
   <si>
     <t>shit</t>
   </si>
   <si>
-    <t>pressure</t>
-  </si>
-  <si>
-    <t>no</t>
+    <t>cut</t>
+  </si>
+  <si>
+    <t>ref</t>
+  </si>
+  <si>
+    <t>emergency</t>
+  </si>
+  <si>
+    <t>shame</t>
+  </si>
+  <si>
+    <t>affected</t>
   </si>
   <si>
     <t>selfish</t>
   </si>
   <si>
-    <t>struggling</t>
-  </si>
-  <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>cancelled</t>
-  </si>
-  <si>
-    <t>emergency</t>
-  </si>
-  <si>
-    <t>anxiety</t>
-  </si>
-  <si>
-    <t>shame</t>
-  </si>
-  <si>
     <t>avoid</t>
   </si>
   <si>
-    <t>sick</t>
-  </si>
-  <si>
-    <t>lower</t>
-  </si>
-  <si>
-    <t>cut</t>
+    <t>saudi</t>
   </si>
   <si>
     <t>risk</t>
@@ -175,10 +196,16 @@
     <t>empty</t>
   </si>
   <si>
+    <t>demand</t>
+  </si>
+  <si>
     <t>fight</t>
   </si>
   <si>
-    <t>demand</t>
+    <t>oil</t>
+  </si>
+  <si>
+    <t>from</t>
   </si>
   <si>
     <t>co</t>
@@ -187,30 +214,39 @@
     <t>of</t>
   </si>
   <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
     <t>.</t>
   </si>
   <si>
+    <t>corona</t>
+  </si>
+  <si>
+    <t>the</t>
+  </si>
+  <si>
     <t>to</t>
   </si>
   <si>
-    <t>the</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
     <t>love</t>
   </si>
   <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>amazing</t>
-  </si>
-  <si>
     <t>sharing</t>
   </si>
   <si>
@@ -223,37 +259,40 @@
     <t>happy</t>
   </si>
   <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
     <t>hand</t>
   </si>
   <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
     <t>support</t>
   </si>
   <si>
-    <t>friend</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>strong</t>
+    <t>positive</t>
   </si>
   <si>
     <t>confidence</t>
@@ -262,148 +301,169 @@
     <t>thanks</t>
   </si>
   <si>
-    <t>positive</t>
+    <t>better</t>
+  </si>
+  <si>
+    <t>won</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>funny</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>care</t>
   </si>
   <si>
     <t>wish</t>
   </si>
   <si>
-    <t>create</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>won</t>
-  </si>
-  <si>
-    <t>like</t>
+    <t>well</t>
+  </si>
+  <si>
+    <t>safety</t>
   </si>
   <si>
     <t>god</t>
   </si>
   <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
     <t>healthy</t>
   </si>
   <si>
-    <t>true</t>
-  </si>
-  <si>
     <t>giving</t>
   </si>
   <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>funny</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>yes</t>
+    <t>team</t>
+  </si>
+  <si>
+    <t>huge</t>
   </si>
   <si>
     <t>hope</t>
   </si>
   <si>
-    <t>safety</t>
-  </si>
-  <si>
     <t>share</t>
   </si>
   <si>
-    <t>team</t>
+    <t>kind</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>security</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>boost</t>
+  </si>
+  <si>
+    <t>growth</t>
+  </si>
+  <si>
+    <t>easter</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>important</t>
   </si>
   <si>
     <t>dear</t>
   </si>
   <si>
-    <t>growth</t>
-  </si>
-  <si>
-    <t>web</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>super</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>security</t>
+    <t>data</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>helping</t>
+  </si>
+  <si>
+    <t>protect</t>
   </si>
   <si>
     <t>credit</t>
   </si>
   <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>sure</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>helping</t>
-  </si>
-  <si>
     <t>give</t>
   </si>
   <si>
-    <t>increase</t>
+    <t>amazon</t>
   </si>
   <si>
     <t>check</t>
   </si>
   <si>
+    <t>increased</t>
+  </si>
+  <si>
+    <t>keep</t>
+  </si>
+  <si>
+    <t>shop</t>
+  </si>
+  <si>
+    <t>stay</t>
+  </si>
+  <si>
+    <t>amp</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>you</t>
+  </si>
+  <si>
     <t>your</t>
   </si>
   <si>
-    <t>you</t>
-  </si>
-  <si>
     <t>and</t>
+  </si>
+  <si>
+    <t>?</t>
   </si>
 </sst>
 </file>
@@ -761,7 +821,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q72"/>
+  <dimension ref="A1:Q84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -769,10 +829,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="J1" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -830,13 +890,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9473684210526315</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="D3">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -848,10 +908,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="K3">
         <v>0.9782608695652174</v>
@@ -880,13 +940,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9333333333333333</v>
+        <v>0.9736842105263158</v>
       </c>
       <c r="C4">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="D4">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -901,16 +961,16 @@
         <v>1</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="K4">
-        <v>0.9696969696969697</v>
+        <v>0.9583333333333334</v>
       </c>
       <c r="L4">
-        <v>32</v>
+        <v>115</v>
       </c>
       <c r="M4">
-        <v>32</v>
+        <v>115</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -922,7 +982,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -930,13 +990,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.918918918918919</v>
+        <v>0.9411764705882353</v>
       </c>
       <c r="C5">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D5">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -948,19 +1008,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="K5">
-        <v>0.9583333333333334</v>
+        <v>0.9444444444444444</v>
       </c>
       <c r="L5">
-        <v>115</v>
+        <v>17</v>
       </c>
       <c r="M5">
-        <v>115</v>
+        <v>17</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -972,7 +1032,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -980,13 +1040,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8947368421052632</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="C6">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D6">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -998,31 +1058,31 @@
         <v>0</v>
       </c>
       <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K6">
+        <v>0.9393939393939394</v>
+      </c>
+      <c r="L6">
+        <v>31</v>
+      </c>
+      <c r="M6">
+        <v>31</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q6">
         <v>2</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="K6">
-        <v>0.9444444444444444</v>
-      </c>
-      <c r="L6">
-        <v>17</v>
-      </c>
-      <c r="M6">
-        <v>17</v>
-      </c>
-      <c r="N6">
-        <v>1</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1030,13 +1090,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8888888888888888</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="C7">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="D7">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1048,10 +1108,10 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="K7">
         <v>0.9375</v>
@@ -1080,13 +1140,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8823529411764706</v>
+        <v>0.8918918918918919</v>
       </c>
       <c r="C8">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D8">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1101,7 +1161,7 @@
         <v>4</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="K8">
         <v>0.9333333333333333</v>
@@ -1130,13 +1190,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.8666666666666667</v>
+        <v>0.88</v>
       </c>
       <c r="C9">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D9">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1148,10 +1208,10 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="K9">
         <v>0.9322033898305084</v>
@@ -1180,13 +1240,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.8527397260273972</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C10">
-        <v>249</v>
+        <v>13</v>
       </c>
       <c r="D10">
-        <v>249</v>
+        <v>13</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1198,10 +1258,10 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="K10">
         <v>0.9230769230769231</v>
@@ -1230,13 +1290,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.8275862068965517</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C11">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D11">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1248,19 +1308,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="K11">
-        <v>0.9060052219321149</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="L11">
-        <v>347</v>
+        <v>33</v>
       </c>
       <c r="M11">
-        <v>347</v>
+        <v>33</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1272,7 +1332,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>36</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1280,13 +1340,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.8</v>
+        <v>0.8620689655172413</v>
       </c>
       <c r="C12">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1298,19 +1358,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="K12">
-        <v>0.8962264150943396</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L12">
-        <v>95</v>
+        <v>20</v>
       </c>
       <c r="M12">
-        <v>95</v>
+        <v>20</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1322,7 +1382,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1330,13 +1390,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.8</v>
+        <v>0.8611111111111112</v>
       </c>
       <c r="C13">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D13">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1348,19 +1408,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="K13">
-        <v>0.8947368421052632</v>
+        <v>0.9007832898172323</v>
       </c>
       <c r="L13">
-        <v>17</v>
+        <v>345</v>
       </c>
       <c r="M13">
-        <v>17</v>
+        <v>345</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1372,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>2</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1380,13 +1440,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.7894736842105263</v>
+        <v>0.8595890410958904</v>
       </c>
       <c r="C14">
-        <v>15</v>
+        <v>251</v>
       </c>
       <c r="D14">
-        <v>15</v>
+        <v>251</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1398,19 +1458,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>4</v>
+        <v>41</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="K14">
-        <v>0.8936170212765957</v>
+        <v>0.8984375</v>
       </c>
       <c r="L14">
-        <v>42</v>
+        <v>115</v>
       </c>
       <c r="M14">
-        <v>42</v>
+        <v>115</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1422,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1430,13 +1490,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.7826086956521739</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="C15">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D15">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1448,19 +1508,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="K15">
-        <v>0.890625</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="L15">
-        <v>114</v>
+        <v>17</v>
       </c>
       <c r="M15">
-        <v>114</v>
+        <v>17</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1472,7 +1532,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1480,13 +1540,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.7826086956521739</v>
+        <v>0.8260869565217391</v>
       </c>
       <c r="C16">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D16">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1498,31 +1558,31 @@
         <v>0</v>
       </c>
       <c r="H16">
+        <v>4</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="K16">
+        <v>0.8936170212765957</v>
+      </c>
+      <c r="L16">
+        <v>42</v>
+      </c>
+      <c r="M16">
+        <v>42</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q16">
         <v>5</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="K16">
-        <v>0.8888888888888888</v>
-      </c>
-      <c r="L16">
-        <v>32</v>
-      </c>
-      <c r="M16">
-        <v>32</v>
-      </c>
-      <c r="N16">
-        <v>1</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1530,7 +1590,7 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.7647058823529411</v>
+        <v>0.8125</v>
       </c>
       <c r="C17">
         <v>13</v>
@@ -1548,19 +1608,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="K17">
-        <v>0.8839285714285714</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="L17">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M17">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1572,7 +1632,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1580,13 +1640,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.76</v>
+        <v>0.8125</v>
       </c>
       <c r="C18">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D18">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1598,10 +1658,10 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="K18">
         <v>0.8837209302325582</v>
@@ -1630,13 +1690,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.75</v>
+        <v>0.8076923076923077</v>
       </c>
       <c r="C19">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D19">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1651,7 +1711,7 @@
         <v>5</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="K19">
         <v>0.88125</v>
@@ -1680,49 +1740,49 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.7391304347826086</v>
+        <v>0.7948717948717948</v>
       </c>
       <c r="C20">
+        <v>31</v>
+      </c>
+      <c r="D20">
+        <v>31</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20" t="b">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>8</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K20">
+        <v>0.8802816901408451</v>
+      </c>
+      <c r="L20">
+        <v>125</v>
+      </c>
+      <c r="M20">
+        <v>125</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q20">
         <v>17</v>
-      </c>
-      <c r="D20">
-        <v>17</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>6</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="K20">
-        <v>0.8732394366197183</v>
-      </c>
-      <c r="L20">
-        <v>124</v>
-      </c>
-      <c r="M20">
-        <v>124</v>
-      </c>
-      <c r="N20">
-        <v>1</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1730,13 +1790,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.7368421052631579</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="C21">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D21">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1748,19 +1808,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="K21">
-        <v>0.8636363636363636</v>
+        <v>0.8773584905660378</v>
       </c>
       <c r="L21">
-        <v>19</v>
+        <v>93</v>
       </c>
       <c r="M21">
-        <v>19</v>
+        <v>93</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1772,7 +1832,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1780,13 +1840,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.7307692307692307</v>
+        <v>0.7391304347826086</v>
       </c>
       <c r="C22">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D22">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1798,19 +1858,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="K22">
-        <v>0.8611111111111112</v>
+        <v>0.8620689655172413</v>
       </c>
       <c r="L22">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M22">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1822,7 +1882,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1830,13 +1890,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.725</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="C23">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D23">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1848,19 +1908,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="K23">
-        <v>0.8536585365853658</v>
+        <v>0.8611111111111112</v>
       </c>
       <c r="L23">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="M23">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1872,7 +1932,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1880,13 +1940,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.6841085271317829</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="C24">
-        <v>353</v>
+        <v>22</v>
       </c>
       <c r="D24">
-        <v>353</v>
+        <v>22</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1898,19 +1958,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>163</v>
+        <v>8</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="K24">
-        <v>0.8448275862068966</v>
+        <v>0.8536585365853658</v>
       </c>
       <c r="L24">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="M24">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1922,7 +1982,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1930,13 +1990,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.6818181818181818</v>
+        <v>0.7096774193548387</v>
       </c>
       <c r="C25">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D25">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1948,19 +2008,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="K25">
-        <v>0.8421052631578947</v>
+        <v>0.8253968253968254</v>
       </c>
       <c r="L25">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="M25">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1972,7 +2032,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1980,13 +2040,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.6779661016949152</v>
+        <v>0.7037037037037037</v>
       </c>
       <c r="C26">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="D26">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1998,19 +2058,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="K26">
-        <v>0.8235294117647058</v>
+        <v>0.8205128205128205</v>
       </c>
       <c r="L26">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="M26">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -2022,7 +2082,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -2030,13 +2090,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.6774193548387096</v>
+        <v>0.7</v>
       </c>
       <c r="C27">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D27">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -2048,31 +2108,31 @@
         <v>0</v>
       </c>
       <c r="H27">
+        <v>12</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="K27">
+        <v>0.7916666666666666</v>
+      </c>
+      <c r="L27">
+        <v>38</v>
+      </c>
+      <c r="M27">
+        <v>38</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q27">
         <v>10</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="K27">
-        <v>0.8214285714285714</v>
-      </c>
-      <c r="L27">
-        <v>23</v>
-      </c>
-      <c r="M27">
-        <v>23</v>
-      </c>
-      <c r="N27">
-        <v>1</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="P27" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2080,13 +2140,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.6772486772486772</v>
+        <v>0.6957364341085271</v>
       </c>
       <c r="C28">
-        <v>128</v>
+        <v>359</v>
       </c>
       <c r="D28">
-        <v>128</v>
+        <v>359</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2098,19 +2158,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>61</v>
+        <v>157</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="K28">
-        <v>0.8095238095238095</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="L28">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="M28">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2122,7 +2182,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2130,13 +2190,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.6666666666666666</v>
+        <v>0.6956521739130435</v>
       </c>
       <c r="C29">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="D29">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2148,19 +2208,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="K29">
-        <v>0.8</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L29">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="M29">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2172,7 +2232,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2180,13 +2240,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.6577181208053692</v>
+        <v>0.6779661016949152</v>
       </c>
       <c r="C30">
-        <v>98</v>
+        <v>40</v>
       </c>
       <c r="D30">
-        <v>98</v>
+        <v>40</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2198,19 +2258,19 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="K30">
-        <v>0.7916666666666666</v>
+        <v>0.775</v>
       </c>
       <c r="L30">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="M30">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2222,7 +2282,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2230,13 +2290,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.6410256410256411</v>
+        <v>0.671957671957672</v>
       </c>
       <c r="C31">
-        <v>25</v>
+        <v>127</v>
       </c>
       <c r="D31">
-        <v>25</v>
+        <v>127</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2248,19 +2308,19 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>14</v>
+        <v>62</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="K31">
-        <v>0.7777777777777778</v>
+        <v>0.7588235294117647</v>
       </c>
       <c r="L31">
-        <v>21</v>
+        <v>258</v>
       </c>
       <c r="M31">
-        <v>21</v>
+        <v>258</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2272,7 +2332,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>6</v>
+        <v>82</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2280,37 +2340,37 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.6296296296296297</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C32">
+        <v>34</v>
+      </c>
+      <c r="D32">
+        <v>34</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32" t="b">
+        <v>0</v>
+      </c>
+      <c r="H32">
         <v>17</v>
       </c>
-      <c r="D32">
-        <v>17</v>
-      </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-      <c r="G32" t="b">
-        <v>0</v>
-      </c>
-      <c r="H32">
-        <v>10</v>
-      </c>
       <c r="J32" s="1" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="K32">
-        <v>0.7692307692307693</v>
+        <v>0.75</v>
       </c>
       <c r="L32">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="M32">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2322,7 +2382,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2330,13 +2390,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.5833333333333334</v>
+        <v>0.65625</v>
       </c>
       <c r="C33">
-        <v>210</v>
+        <v>21</v>
       </c>
       <c r="D33">
-        <v>210</v>
+        <v>21</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2348,19 +2408,19 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>150</v>
+        <v>11</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="K33">
-        <v>0.75</v>
+        <v>0.7428571428571429</v>
       </c>
       <c r="L33">
-        <v>255</v>
+        <v>26</v>
       </c>
       <c r="M33">
-        <v>255</v>
+        <v>26</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2372,7 +2432,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>85</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2380,13 +2440,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.5833333333333334</v>
+        <v>0.65</v>
       </c>
       <c r="C34">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D34">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2398,19 +2458,19 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="K34">
-        <v>0.75</v>
+        <v>0.74</v>
       </c>
       <c r="L34">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="M34">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2422,7 +2482,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2430,37 +2490,37 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.5666666666666667</v>
+        <v>0.6129032258064516</v>
       </c>
       <c r="C35">
+        <v>19</v>
+      </c>
+      <c r="D35">
+        <v>19</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35" t="b">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>12</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="K35">
+        <v>0.7391304347826086</v>
+      </c>
+      <c r="L35">
         <v>17</v>
       </c>
-      <c r="D35">
+      <c r="M35">
         <v>17</v>
-      </c>
-      <c r="E35">
-        <v>0</v>
-      </c>
-      <c r="F35">
-        <v>1</v>
-      </c>
-      <c r="G35" t="b">
-        <v>0</v>
-      </c>
-      <c r="H35">
-        <v>13</v>
-      </c>
-      <c r="J35" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="K35">
-        <v>0.75</v>
-      </c>
-      <c r="L35">
-        <v>18</v>
-      </c>
-      <c r="M35">
-        <v>18</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2480,13 +2540,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.5641025641025641</v>
+        <v>0.6107382550335571</v>
       </c>
       <c r="C36">
-        <v>22</v>
+        <v>91</v>
       </c>
       <c r="D36">
-        <v>22</v>
+        <v>91</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2498,19 +2558,19 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="K36">
-        <v>0.7428571428571429</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="L36">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="M36">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2522,7 +2582,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2530,13 +2590,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.5384615384615384</v>
+        <v>0.5909090909090909</v>
       </c>
       <c r="C37">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D37">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2548,19 +2608,19 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="K37">
-        <v>0.7407407407407407</v>
+        <v>0.7186440677966102</v>
       </c>
       <c r="L37">
-        <v>20</v>
+        <v>212</v>
       </c>
       <c r="M37">
-        <v>20</v>
+        <v>212</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2572,7 +2632,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>7</v>
+        <v>83</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2580,13 +2640,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.5333333333333333</v>
+        <v>0.5861111111111111</v>
       </c>
       <c r="C38">
-        <v>40</v>
+        <v>211</v>
       </c>
       <c r="D38">
-        <v>40</v>
+        <v>211</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2598,19 +2658,19 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>35</v>
+        <v>149</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="K38">
-        <v>0.7272727272727273</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L38">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="M38">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2622,7 +2682,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -2630,13 +2690,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.5161290322580645</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="C39">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D39">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2648,19 +2708,19 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="K39">
-        <v>0.7272727272727273</v>
+        <v>0.7037037037037037</v>
       </c>
       <c r="L39">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="M39">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2672,7 +2732,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -2680,13 +2740,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.5135135135135135</v>
+        <v>0.5769230769230769</v>
       </c>
       <c r="C40">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D40">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2698,19 +2758,19 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="K40">
-        <v>0.7142857142857143</v>
+        <v>0.702928870292887</v>
       </c>
       <c r="L40">
-        <v>20</v>
+        <v>168</v>
       </c>
       <c r="M40">
-        <v>20</v>
+        <v>168</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2722,7 +2782,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>8</v>
+        <v>71</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -2730,49 +2790,49 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.509090909090909</v>
+        <v>0.5769230769230769</v>
       </c>
       <c r="C41">
+        <v>15</v>
+      </c>
+      <c r="D41">
+        <v>15</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41" t="b">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>11</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="K41">
+        <v>0.6853932584269663</v>
+      </c>
+      <c r="L41">
+        <v>61</v>
+      </c>
+      <c r="M41">
+        <v>61</v>
+      </c>
+      <c r="N41">
+        <v>1</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q41">
         <v>28</v>
-      </c>
-      <c r="D41">
-        <v>28</v>
-      </c>
-      <c r="E41">
-        <v>0</v>
-      </c>
-      <c r="F41">
-        <v>1</v>
-      </c>
-      <c r="G41" t="b">
-        <v>0</v>
-      </c>
-      <c r="H41">
-        <v>27</v>
-      </c>
-      <c r="J41" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="K41">
-        <v>0.711864406779661</v>
-      </c>
-      <c r="L41">
-        <v>210</v>
-      </c>
-      <c r="M41">
-        <v>210</v>
-      </c>
-      <c r="N41">
-        <v>1</v>
-      </c>
-      <c r="O41">
-        <v>0</v>
-      </c>
-      <c r="P41" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q41">
-        <v>85</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -2780,13 +2840,13 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.5</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="C42">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="D42">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2798,19 +2858,19 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="K42">
-        <v>0.7021276595744681</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="L42">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="M42">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2822,7 +2882,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>28</v>
+        <v>6</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -2830,13 +2890,13 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.4464285714285715</v>
+        <v>0.5128205128205128</v>
       </c>
       <c r="C43">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D43">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2848,19 +2908,19 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="K43">
-        <v>0.7</v>
+        <v>0.6808510638297872</v>
       </c>
       <c r="L43">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="M43">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2872,7 +2932,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -2880,13 +2940,13 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.3454545454545455</v>
+        <v>0.4909090909090909</v>
       </c>
       <c r="C44">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D44">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2898,19 +2958,19 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="K44">
-        <v>0.6956521739130435</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L44">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="M44">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2922,7 +2982,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -2930,13 +2990,13 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.2987012987012987</v>
+        <v>0.4814814814814815</v>
       </c>
       <c r="C45">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="D45">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -2948,19 +3008,19 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="K45">
-        <v>0.6903765690376569</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L45">
-        <v>165</v>
+        <v>16</v>
       </c>
       <c r="M45">
-        <v>165</v>
+        <v>16</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2972,7 +3032,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>74</v>
+        <v>8</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -2980,13 +3040,13 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.2857142857142857</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="C46">
-        <v>72</v>
+        <v>35</v>
       </c>
       <c r="D46">
-        <v>72</v>
+        <v>35</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -2998,19 +3058,19 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>180</v>
+        <v>40</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="K46">
-        <v>0.6853932584269663</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L46">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="M46">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -3022,7 +3082,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>28</v>
+        <v>9</v>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -3030,13 +3090,13 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.2666666666666667</v>
+        <v>0.4594594594594595</v>
       </c>
       <c r="C47">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D47">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -3048,19 +3108,19 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>66</v>
+        <v>20</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="K47">
         <v>0.6666666666666666</v>
       </c>
       <c r="L47">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="M47">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -3072,7 +3132,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="48" spans="1:17">
@@ -3080,13 +3140,13 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.2</v>
+        <v>0.4516129032258064</v>
       </c>
       <c r="C48">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D48">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -3098,19 +3158,19 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>64</v>
+        <v>17</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="K48">
-        <v>0.6615384615384615</v>
+        <v>0.6538461538461539</v>
       </c>
       <c r="L48">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="M48">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -3122,7 +3182,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>22</v>
+        <v>9</v>
       </c>
     </row>
     <row r="49" spans="1:17">
@@ -3130,13 +3190,13 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.1447721179624665</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="C49">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="D49">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -3148,19 +3208,19 @@
         <v>0</v>
       </c>
       <c r="H49">
-        <v>319</v>
+        <v>20</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="K49">
-        <v>0.6470588235294118</v>
+        <v>0.6190476190476191</v>
       </c>
       <c r="L49">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M49">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -3172,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="50" spans="1:17">
@@ -3180,49 +3240,49 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.007087628865979381</v>
+        <v>0.4363636363636363</v>
       </c>
       <c r="C50">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D50">
+        <v>24</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>1</v>
+      </c>
+      <c r="G50" t="b">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>31</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="K50">
+        <v>0.6153846153846154</v>
+      </c>
+      <c r="L50">
+        <v>40</v>
+      </c>
+      <c r="M50">
+        <v>40</v>
+      </c>
+      <c r="N50">
+        <v>1</v>
+      </c>
+      <c r="O50">
+        <v>0</v>
+      </c>
+      <c r="P50" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q50">
         <v>25</v>
-      </c>
-      <c r="E50">
-        <v>0.12</v>
-      </c>
-      <c r="F50">
-        <v>0.88</v>
-      </c>
-      <c r="G50" t="b">
-        <v>1</v>
-      </c>
-      <c r="H50">
-        <v>3082</v>
-      </c>
-      <c r="J50" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="K50">
-        <v>0.6285714285714286</v>
-      </c>
-      <c r="L50">
-        <v>44</v>
-      </c>
-      <c r="M50">
-        <v>44</v>
-      </c>
-      <c r="N50">
-        <v>1</v>
-      </c>
-      <c r="O50">
-        <v>0</v>
-      </c>
-      <c r="P50" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q50">
-        <v>26</v>
       </c>
     </row>
     <row r="51" spans="1:17">
@@ -3230,37 +3290,37 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.005475989890480202</v>
+        <v>0.4193548387096774</v>
       </c>
       <c r="C51">
         <v>13</v>
       </c>
       <c r="D51">
+        <v>13</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>1</v>
+      </c>
+      <c r="G51" t="b">
+        <v>0</v>
+      </c>
+      <c r="H51">
         <v>18</v>
       </c>
-      <c r="E51">
-        <v>0.28</v>
-      </c>
-      <c r="F51">
-        <v>0.72</v>
-      </c>
-      <c r="G51" t="b">
-        <v>1</v>
-      </c>
-      <c r="H51">
-        <v>2361</v>
-      </c>
       <c r="J51" s="1" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="K51">
-        <v>0.6153846153846154</v>
+        <v>0.6142857142857143</v>
       </c>
       <c r="L51">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="M51">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -3272,7 +3332,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="52" spans="1:17">
@@ -3280,37 +3340,37 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.003210272873194221</v>
+        <v>0.3766233766233766</v>
       </c>
       <c r="C52">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="D52">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E52">
-        <v>0.43</v>
+        <v>0</v>
       </c>
       <c r="F52">
-        <v>0.5700000000000001</v>
+        <v>1</v>
       </c>
       <c r="G52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H52">
-        <v>4968</v>
+        <v>48</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="K52">
-        <v>0.6071428571428571</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L52">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="M52">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -3322,7 +3382,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="53" spans="1:17">
@@ -3330,49 +3390,49 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.003012048192771084</v>
+        <v>0.3452380952380952</v>
       </c>
       <c r="C53">
+        <v>87</v>
+      </c>
+      <c r="D53">
+        <v>87</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+      <c r="G53" t="b">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <v>165</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="K53">
+        <v>0.5806451612903226</v>
+      </c>
+      <c r="L53">
+        <v>18</v>
+      </c>
+      <c r="M53">
+        <v>18</v>
+      </c>
+      <c r="N53">
+        <v>1</v>
+      </c>
+      <c r="O53">
+        <v>0</v>
+      </c>
+      <c r="P53" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q53">
         <v>13</v>
-      </c>
-      <c r="D53">
-        <v>25</v>
-      </c>
-      <c r="E53">
-        <v>0.48</v>
-      </c>
-      <c r="F53">
-        <v>0.52</v>
-      </c>
-      <c r="G53" t="b">
-        <v>1</v>
-      </c>
-      <c r="H53">
-        <v>4303</v>
-      </c>
-      <c r="J53" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="K53">
-        <v>0.6071428571428571</v>
-      </c>
-      <c r="L53">
-        <v>17</v>
-      </c>
-      <c r="M53">
-        <v>17</v>
-      </c>
-      <c r="N53">
-        <v>1</v>
-      </c>
-      <c r="O53">
-        <v>0</v>
-      </c>
-      <c r="P53" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q53">
-        <v>11</v>
       </c>
     </row>
     <row r="54" spans="1:17">
@@ -3380,37 +3440,37 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.002911490683229814</v>
+        <v>0.3444444444444444</v>
       </c>
       <c r="C54">
+        <v>31</v>
+      </c>
+      <c r="D54">
+        <v>31</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
+      <c r="G54" t="b">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>59</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="K54">
+        <v>0.5769230769230769</v>
+      </c>
+      <c r="L54">
         <v>15</v>
       </c>
-      <c r="D54">
-        <v>28</v>
-      </c>
-      <c r="E54">
-        <v>0.46</v>
-      </c>
-      <c r="F54">
-        <v>0.54</v>
-      </c>
-      <c r="G54" t="b">
-        <v>1</v>
-      </c>
-      <c r="H54">
-        <v>5137</v>
-      </c>
-      <c r="J54" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="K54">
-        <v>0.5909090909090909</v>
-      </c>
-      <c r="L54">
-        <v>13</v>
-      </c>
       <c r="M54">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -3422,47 +3482,95 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="55" spans="1:17">
+      <c r="A55" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B55">
+        <v>0.1903485254691689</v>
+      </c>
+      <c r="C55">
+        <v>71</v>
+      </c>
+      <c r="D55">
+        <v>71</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>1</v>
+      </c>
+      <c r="G55" t="b">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <v>302</v>
+      </c>
       <c r="J55" s="1" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="K55">
-        <v>0.5853658536585366</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L55">
         <v>24</v>
       </c>
       <c r="M55">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N55">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O55">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q55">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="56" spans="1:17">
+      <c r="A56" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B56">
+        <v>0.1875</v>
+      </c>
+      <c r="C56">
+        <v>15</v>
+      </c>
+      <c r="D56">
+        <v>15</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>1</v>
+      </c>
+      <c r="G56" t="b">
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <v>65</v>
+      </c>
       <c r="J56" s="1" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="K56">
-        <v>0.5833333333333334</v>
+        <v>0.5652173913043478</v>
       </c>
       <c r="L56">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M56">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -3478,17 +3586,41 @@
       </c>
     </row>
     <row r="57" spans="1:17">
+      <c r="A57" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B57">
+        <v>0.1</v>
+      </c>
+      <c r="C57">
+        <v>30</v>
+      </c>
+      <c r="D57">
+        <v>30</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>1</v>
+      </c>
+      <c r="G57" t="b">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>270</v>
+      </c>
       <c r="J57" s="1" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="K57">
-        <v>0.5777777777777777</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="L57">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="M57">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -3500,100 +3632,196 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="58" spans="1:17">
+      <c r="A58" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B58">
+        <v>0.02392344497607655</v>
+      </c>
+      <c r="C58">
+        <v>15</v>
+      </c>
+      <c r="D58">
+        <v>15</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>1</v>
+      </c>
+      <c r="G58" t="b">
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <v>612</v>
+      </c>
       <c r="J58" s="1" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="K58">
-        <v>0.5652173913043478</v>
+        <v>0.5161290322580645</v>
       </c>
       <c r="L58">
+        <v>16</v>
+      </c>
+      <c r="M58">
+        <v>16</v>
+      </c>
+      <c r="N58">
+        <v>1</v>
+      </c>
+      <c r="O58">
+        <v>0</v>
+      </c>
+      <c r="P58" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q58">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17">
+      <c r="A59" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B59">
+        <v>0.01449742268041237</v>
+      </c>
+      <c r="C59">
+        <v>45</v>
+      </c>
+      <c r="D59">
+        <v>48</v>
+      </c>
+      <c r="E59">
+        <v>0.06</v>
+      </c>
+      <c r="F59">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="G59" t="b">
+        <v>1</v>
+      </c>
+      <c r="H59">
+        <v>3059</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="K59">
+        <v>0.515625</v>
+      </c>
+      <c r="L59">
+        <v>33</v>
+      </c>
+      <c r="M59">
+        <v>33</v>
+      </c>
+      <c r="N59">
+        <v>1</v>
+      </c>
+      <c r="O59">
+        <v>0</v>
+      </c>
+      <c r="P59" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q59">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17">
+      <c r="A60" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B60">
+        <v>0.01011378002528445</v>
+      </c>
+      <c r="C60">
+        <v>24</v>
+      </c>
+      <c r="D60">
+        <v>30</v>
+      </c>
+      <c r="E60">
+        <v>0.2</v>
+      </c>
+      <c r="F60">
+        <v>0.8</v>
+      </c>
+      <c r="G60" t="b">
+        <v>1</v>
+      </c>
+      <c r="H60">
+        <v>2349</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="K60">
+        <v>0.4888888888888889</v>
+      </c>
+      <c r="L60">
+        <v>22</v>
+      </c>
+      <c r="M60">
+        <v>22</v>
+      </c>
+      <c r="N60">
+        <v>1</v>
+      </c>
+      <c r="O60">
+        <v>0</v>
+      </c>
+      <c r="P60" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q60">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17">
+      <c r="A61" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B61">
+        <v>0.006102877070619006</v>
+      </c>
+      <c r="C61">
+        <v>14</v>
+      </c>
+      <c r="D61">
+        <v>29</v>
+      </c>
+      <c r="E61">
+        <v>0.52</v>
+      </c>
+      <c r="F61">
+        <v>0.48</v>
+      </c>
+      <c r="G61" t="b">
+        <v>1</v>
+      </c>
+      <c r="H61">
+        <v>2280</v>
+      </c>
+      <c r="J61" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="K61">
+        <v>0.4642857142857143</v>
+      </c>
+      <c r="L61">
         <v>13</v>
       </c>
-      <c r="M58">
+      <c r="M61">
         <v>13</v>
       </c>
-      <c r="N58">
-        <v>1</v>
-      </c>
-      <c r="O58">
-        <v>0</v>
-      </c>
-      <c r="P58" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q58">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="59" spans="1:17">
-      <c r="J59" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="K59">
-        <v>0.5384615384615384</v>
-      </c>
-      <c r="L59">
-        <v>14</v>
-      </c>
-      <c r="M59">
-        <v>14</v>
-      </c>
-      <c r="N59">
-        <v>1</v>
-      </c>
-      <c r="O59">
-        <v>0</v>
-      </c>
-      <c r="P59" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q59">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="60" spans="1:17">
-      <c r="J60" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="K60">
-        <v>0.5294117647058824</v>
-      </c>
-      <c r="L60">
-        <v>18</v>
-      </c>
-      <c r="M60">
-        <v>18</v>
-      </c>
-      <c r="N60">
-        <v>1</v>
-      </c>
-      <c r="O60">
-        <v>0</v>
-      </c>
-      <c r="P60" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q60">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="61" spans="1:17">
-      <c r="J61" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="K61">
-        <v>0.5205479452054794</v>
-      </c>
-      <c r="L61">
-        <v>38</v>
-      </c>
-      <c r="M61">
-        <v>38</v>
-      </c>
       <c r="N61">
         <v>1</v>
       </c>
@@ -3604,21 +3832,45 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>35</v>
+        <v>15</v>
       </c>
     </row>
     <row r="62" spans="1:17">
+      <c r="A62" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B62">
+        <v>0.006086142322097378</v>
+      </c>
+      <c r="C62">
+        <v>13</v>
+      </c>
+      <c r="D62">
+        <v>20</v>
+      </c>
+      <c r="E62">
+        <v>0.35</v>
+      </c>
+      <c r="F62">
+        <v>0.65</v>
+      </c>
+      <c r="G62" t="b">
+        <v>1</v>
+      </c>
+      <c r="H62">
+        <v>2123</v>
+      </c>
       <c r="J62" s="1" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="K62">
-        <v>0.5161290322580645</v>
+        <v>0.4385964912280702</v>
       </c>
       <c r="L62">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="M62">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -3630,41 +3882,89 @@
         <v>0</v>
       </c>
       <c r="Q62">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17">
+      <c r="A63" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B63">
+        <v>0.005431502715751358</v>
+      </c>
+      <c r="C63">
+        <v>27</v>
+      </c>
+      <c r="D63">
+        <v>52</v>
+      </c>
+      <c r="E63">
+        <v>0.48</v>
+      </c>
+      <c r="F63">
+        <v>0.52</v>
+      </c>
+      <c r="G63" t="b">
+        <v>1</v>
+      </c>
+      <c r="H63">
+        <v>4944</v>
+      </c>
+      <c r="J63" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="K63">
+        <v>0.4102564102564102</v>
+      </c>
+      <c r="L63">
+        <v>32</v>
+      </c>
+      <c r="M63">
+        <v>32</v>
+      </c>
+      <c r="N63">
+        <v>1</v>
+      </c>
+      <c r="O63">
+        <v>0</v>
+      </c>
+      <c r="P63" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q63">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17">
+      <c r="A64" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B64">
+        <v>0.004733354370463868</v>
+      </c>
+      <c r="C64">
         <v>15</v>
       </c>
-    </row>
-    <row r="63" spans="1:17">
-      <c r="J63" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="K63">
-        <v>0.40625</v>
-      </c>
-      <c r="L63">
-        <v>26</v>
-      </c>
-      <c r="M63">
-        <v>26</v>
-      </c>
-      <c r="N63">
-        <v>1</v>
-      </c>
-      <c r="O63">
-        <v>0</v>
-      </c>
-      <c r="P63" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q63">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="64" spans="1:17">
+      <c r="D64">
+        <v>47</v>
+      </c>
+      <c r="E64">
+        <v>0.68</v>
+      </c>
+      <c r="F64">
+        <v>0.32</v>
+      </c>
+      <c r="G64" t="b">
+        <v>1</v>
+      </c>
+      <c r="H64">
+        <v>3154</v>
+      </c>
       <c r="J64" s="1" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="K64">
-        <v>0.4035087719298245</v>
+        <v>0.3898305084745763</v>
       </c>
       <c r="L64">
         <v>23</v>
@@ -3682,215 +3982,575 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="65" spans="10:17">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17">
+      <c r="A65" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B65">
+        <v>0.004279323088893211</v>
+      </c>
+      <c r="C65">
+        <v>22</v>
+      </c>
+      <c r="D65">
+        <v>46</v>
+      </c>
+      <c r="E65">
+        <v>0.52</v>
+      </c>
+      <c r="F65">
+        <v>0.48</v>
+      </c>
+      <c r="G65" t="b">
+        <v>1</v>
+      </c>
+      <c r="H65">
+        <v>5119</v>
+      </c>
       <c r="J65" s="1" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="K65">
-        <v>0.3728813559322034</v>
+        <v>0.3835616438356164</v>
       </c>
       <c r="L65">
+        <v>28</v>
+      </c>
+      <c r="M65">
+        <v>28</v>
+      </c>
+      <c r="N65">
+        <v>1</v>
+      </c>
+      <c r="O65">
+        <v>0</v>
+      </c>
+      <c r="P65" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q65">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17">
+      <c r="A66" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B66">
+        <v>0.004176334106728539</v>
+      </c>
+      <c r="C66">
+        <v>18</v>
+      </c>
+      <c r="D66">
+        <v>36</v>
+      </c>
+      <c r="E66">
+        <v>0.5</v>
+      </c>
+      <c r="F66">
+        <v>0.5</v>
+      </c>
+      <c r="G66" t="b">
+        <v>1</v>
+      </c>
+      <c r="H66">
+        <v>4292</v>
+      </c>
+      <c r="J66" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="K66">
+        <v>0.3823529411764706</v>
+      </c>
+      <c r="L66">
+        <v>13</v>
+      </c>
+      <c r="M66">
+        <v>13</v>
+      </c>
+      <c r="N66">
+        <v>1</v>
+      </c>
+      <c r="O66">
+        <v>0</v>
+      </c>
+      <c r="P66" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q66">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17">
+      <c r="J67" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="K67">
+        <v>0.3442622950819672</v>
+      </c>
+      <c r="L67">
+        <v>21</v>
+      </c>
+      <c r="M67">
+        <v>21</v>
+      </c>
+      <c r="N67">
+        <v>1</v>
+      </c>
+      <c r="O67">
+        <v>0</v>
+      </c>
+      <c r="P67" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q67">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17">
+      <c r="J68" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="K68">
+        <v>0.2641509433962264</v>
+      </c>
+      <c r="L68">
+        <v>14</v>
+      </c>
+      <c r="M68">
+        <v>14</v>
+      </c>
+      <c r="N68">
+        <v>1</v>
+      </c>
+      <c r="O68">
+        <v>0</v>
+      </c>
+      <c r="P68" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q68">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17">
+      <c r="J69" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="K69">
+        <v>0.1869158878504673</v>
+      </c>
+      <c r="L69">
+        <v>20</v>
+      </c>
+      <c r="M69">
         <v>22</v>
       </c>
-      <c r="M65">
-        <v>22</v>
-      </c>
-      <c r="N65">
-        <v>1</v>
-      </c>
-      <c r="O65">
-        <v>0</v>
-      </c>
-      <c r="P65" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q65">
+      <c r="N69">
+        <v>0.91</v>
+      </c>
+      <c r="O69">
+        <v>0.08999999999999997</v>
+      </c>
+      <c r="P69" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q69">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17">
+      <c r="J70" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="K70">
+        <v>0.1805555555555556</v>
+      </c>
+      <c r="L70">
+        <v>13</v>
+      </c>
+      <c r="M70">
+        <v>13</v>
+      </c>
+      <c r="N70">
+        <v>1</v>
+      </c>
+      <c r="O70">
+        <v>0</v>
+      </c>
+      <c r="P70" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q70">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17">
+      <c r="J71" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="K71">
+        <v>0.1129032258064516</v>
+      </c>
+      <c r="L71">
+        <v>14</v>
+      </c>
+      <c r="M71">
+        <v>14</v>
+      </c>
+      <c r="N71">
+        <v>1</v>
+      </c>
+      <c r="O71">
+        <v>0</v>
+      </c>
+      <c r="P71" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q71">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17">
+      <c r="J72" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="K72">
+        <v>0.0972972972972973</v>
+      </c>
+      <c r="L72">
+        <v>18</v>
+      </c>
+      <c r="M72">
+        <v>18</v>
+      </c>
+      <c r="N72">
+        <v>1</v>
+      </c>
+      <c r="O72">
+        <v>0</v>
+      </c>
+      <c r="P72" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q72">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17">
+      <c r="J73" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="K73">
+        <v>0.04220779220779221</v>
+      </c>
+      <c r="L73">
+        <v>13</v>
+      </c>
+      <c r="M73">
+        <v>13</v>
+      </c>
+      <c r="N73">
+        <v>1</v>
+      </c>
+      <c r="O73">
+        <v>0</v>
+      </c>
+      <c r="P73" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q73">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17">
+      <c r="J74" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="K74">
+        <v>0.04011461318051576</v>
+      </c>
+      <c r="L74">
+        <v>14</v>
+      </c>
+      <c r="M74">
+        <v>14</v>
+      </c>
+      <c r="N74">
+        <v>1</v>
+      </c>
+      <c r="O74">
+        <v>0</v>
+      </c>
+      <c r="P74" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q74">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17">
+      <c r="J75" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="K75">
+        <v>0.0360576923076923</v>
+      </c>
+      <c r="L75">
+        <v>15</v>
+      </c>
+      <c r="M75">
+        <v>15</v>
+      </c>
+      <c r="N75">
+        <v>1</v>
+      </c>
+      <c r="O75">
+        <v>0</v>
+      </c>
+      <c r="P75" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q75">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17">
+      <c r="J76" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="K76">
+        <v>0.0350584307178631</v>
+      </c>
+      <c r="L76">
+        <v>42</v>
+      </c>
+      <c r="M76">
+        <v>44</v>
+      </c>
+      <c r="N76">
+        <v>0.95</v>
+      </c>
+      <c r="O76">
+        <v>0.05000000000000004</v>
+      </c>
+      <c r="P76" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q76">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17">
+      <c r="J77" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="K77">
+        <v>0.03296703296703297</v>
+      </c>
+      <c r="L77">
+        <v>18</v>
+      </c>
+      <c r="M77">
+        <v>19</v>
+      </c>
+      <c r="N77">
+        <v>0.95</v>
+      </c>
+      <c r="O77">
+        <v>0.05000000000000004</v>
+      </c>
+      <c r="P77" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q77">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17">
+      <c r="J78" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="K78">
+        <v>0.01051051051051051</v>
+      </c>
+      <c r="L78">
+        <v>28</v>
+      </c>
+      <c r="M78">
         <v>37</v>
       </c>
-    </row>
-    <row r="66" spans="10:17">
-      <c r="J66" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="K66">
-        <v>0.360655737704918</v>
-      </c>
-      <c r="L66">
-        <v>22</v>
-      </c>
-      <c r="M66">
-        <v>22</v>
-      </c>
-      <c r="N66">
-        <v>1</v>
-      </c>
-      <c r="O66">
-        <v>0</v>
-      </c>
-      <c r="P66" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q66">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="67" spans="10:17">
-      <c r="J67" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="K67">
-        <v>0.358974358974359</v>
-      </c>
-      <c r="L67">
-        <v>28</v>
-      </c>
-      <c r="M67">
-        <v>28</v>
-      </c>
-      <c r="N67">
-        <v>1</v>
-      </c>
-      <c r="O67">
-        <v>0</v>
-      </c>
-      <c r="P67" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q67">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="68" spans="10:17">
-      <c r="J68" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="K68">
-        <v>0.1376146788990826</v>
-      </c>
-      <c r="L68">
+      <c r="N78">
+        <v>0.76</v>
+      </c>
+      <c r="O78">
+        <v>0.24</v>
+      </c>
+      <c r="P78" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q78">
+        <v>2636</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17">
+      <c r="J79" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K79">
+        <v>0.01004394224733208</v>
+      </c>
+      <c r="L79">
+        <v>32</v>
+      </c>
+      <c r="M79">
+        <v>47</v>
+      </c>
+      <c r="N79">
+        <v>0.68</v>
+      </c>
+      <c r="O79">
+        <v>0.32</v>
+      </c>
+      <c r="P79" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q79">
+        <v>3154</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17">
+      <c r="J80" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="K80">
+        <v>0.006691760769552488</v>
+      </c>
+      <c r="L80">
+        <v>16</v>
+      </c>
+      <c r="M80">
+        <v>19</v>
+      </c>
+      <c r="N80">
+        <v>0.84</v>
+      </c>
+      <c r="O80">
+        <v>0.16</v>
+      </c>
+      <c r="P80" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q80">
+        <v>2375</v>
+      </c>
+    </row>
+    <row r="81" spans="10:17">
+      <c r="J81" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K81">
+        <v>0.006535947712418301</v>
+      </c>
+      <c r="L81">
         <v>15</v>
       </c>
-      <c r="M68">
-        <v>15</v>
-      </c>
-      <c r="N68">
-        <v>1</v>
-      </c>
-      <c r="O68">
-        <v>0</v>
-      </c>
-      <c r="P68" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q68">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="69" spans="10:17">
-      <c r="J69" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="K69">
-        <v>0.02376599634369287</v>
-      </c>
-      <c r="L69">
-        <v>13</v>
-      </c>
-      <c r="M69">
-        <v>13</v>
-      </c>
-      <c r="N69">
-        <v>1</v>
-      </c>
-      <c r="O69">
-        <v>0</v>
-      </c>
-      <c r="P69" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q69">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="70" spans="10:17">
-      <c r="J70" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="K70">
-        <v>0.02085070892410342</v>
-      </c>
-      <c r="L70">
+      <c r="M81">
+        <v>29</v>
+      </c>
+      <c r="N81">
+        <v>0.52</v>
+      </c>
+      <c r="O81">
+        <v>0.48</v>
+      </c>
+      <c r="P81" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q81">
+        <v>2280</v>
+      </c>
+    </row>
+    <row r="82" spans="10:17">
+      <c r="J82" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K82">
+        <v>0.00503119339907426</v>
+      </c>
+      <c r="L82">
         <v>25</v>
       </c>
-      <c r="M70">
-        <v>26</v>
-      </c>
-      <c r="N70">
-        <v>0.96</v>
-      </c>
-      <c r="O70">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="P70" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q70">
-        <v>1174</v>
-      </c>
-    </row>
-    <row r="71" spans="10:17">
-      <c r="J71" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="K71">
-        <v>0.007874015748031496</v>
-      </c>
-      <c r="L71">
-        <v>21</v>
-      </c>
-      <c r="M71">
-        <v>27</v>
-      </c>
-      <c r="N71">
-        <v>0.78</v>
-      </c>
-      <c r="O71">
-        <v>0.22</v>
-      </c>
-      <c r="P71" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q71">
-        <v>2646</v>
-      </c>
-    </row>
-    <row r="72" spans="10:17">
-      <c r="J72" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="K72">
-        <v>0.002524271844660194</v>
-      </c>
-      <c r="L72">
-        <v>13</v>
-      </c>
-      <c r="M72">
-        <v>28</v>
-      </c>
-      <c r="N72">
-        <v>0.46</v>
-      </c>
-      <c r="O72">
-        <v>0.54</v>
-      </c>
-      <c r="P72" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q72">
-        <v>5137</v>
+      <c r="M82">
+        <v>52</v>
+      </c>
+      <c r="N82">
+        <v>0.48</v>
+      </c>
+      <c r="O82">
+        <v>0.52</v>
+      </c>
+      <c r="P82" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q82">
+        <v>4944</v>
+      </c>
+    </row>
+    <row r="83" spans="10:17">
+      <c r="J83" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K83">
+        <v>0.00466653704063776</v>
+      </c>
+      <c r="L83">
+        <v>24</v>
+      </c>
+      <c r="M83">
+        <v>46</v>
+      </c>
+      <c r="N83">
+        <v>0.52</v>
+      </c>
+      <c r="O83">
+        <v>0.48</v>
+      </c>
+      <c r="P83" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q83">
+        <v>5119</v>
+      </c>
+    </row>
+    <row r="84" spans="10:17">
+      <c r="J84" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K84">
+        <v>0.004176334106728539</v>
+      </c>
+      <c r="L84">
+        <v>18</v>
+      </c>
+      <c r="M84">
+        <v>36</v>
+      </c>
+      <c r="N84">
+        <v>0.5</v>
+      </c>
+      <c r="O84">
+        <v>0.5</v>
+      </c>
+      <c r="P84" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q84">
+        <v>4292</v>
       </c>
     </row>
   </sheetData>
